--- a/data/income_statement/2digits/size/56_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/56_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>56-Food and beverage service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>56-Food and beverage service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,665 +841,750 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2695601.93824</v>
+        <v>2662596.53471</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3297960.59191</v>
+        <v>3246461.27127</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4122389.85543</v>
+        <v>4036108.75651</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4944489.21492</v>
+        <v>4903929.619059999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5639608.8953</v>
+        <v>5644017.444879999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7225696.888809999</v>
+        <v>7251690.1242</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8388061.970269999</v>
+        <v>8419564.36287</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>9982032.22476</v>
+        <v>9886285.287150001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>12453827.34563</v>
+        <v>12278067.35171</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>12804454.26033</v>
+        <v>12661593.9257</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>15053040.51198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15090198.90515</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>13089490.187</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2644463.76979</v>
+        <v>2617970.18092</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3220426.981910001</v>
+        <v>3178959.79532</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>4017023.31453</v>
+        <v>3940121.73809</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4821871.33451</v>
+        <v>4794124.874139999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5504335.343830001</v>
+        <v>5514488.111559999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7034417.860520001</v>
+        <v>7067732.09811</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>8085819.635039999</v>
+        <v>8135388.9712</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9577503.769819999</v>
+        <v>9508025.069529999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>11950695.0305</v>
+        <v>11792064.54821</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>12370069.43307</v>
+        <v>12242124.85159</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>14467436.53904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14523341.55449</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12513940.47</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>5169.10832</v>
+        <v>4692.7781</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>13825.21067</v>
+        <v>13267.57933</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>10362.04538</v>
+        <v>9163.40633</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>15764.97904</v>
+        <v>12641.62786</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>23131.55307</v>
+        <v>23014.87288</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>19280.03714</v>
+        <v>16632.68162</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>60503.7958</v>
+        <v>58115.46265</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>101342.81708</v>
+        <v>93122.26175000001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>184402.08161</v>
+        <v>182231.57926</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>130909.43554</v>
+        <v>124661.63782</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>149146.0447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>143573.12066</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>156081.413</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>45969.06013000001</v>
+        <v>39933.57569</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>63708.39933000001</v>
+        <v>54233.89662000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>95004.49552000001</v>
+        <v>86823.61209000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>106852.90137</v>
+        <v>97163.11706</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>112141.9984</v>
+        <v>106514.46044</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>171998.99115</v>
+        <v>167325.34447</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>241738.53943</v>
+        <v>226059.92902</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>303185.63786</v>
+        <v>285137.95587</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>318730.23352</v>
+        <v>303771.22424</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>303475.39172</v>
+        <v>294807.43629</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>436457.92824</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>423284.23</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>419468.304</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>5788.853950000001</v>
+        <v>12800.52298</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>12695.63879</v>
+        <v>12846.63154</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>18024.42234</v>
+        <v>15805.40708</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>21638.09168</v>
+        <v>17129.71972</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>23767.34048</v>
+        <v>20045.87977</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>28952.04935</v>
+        <v>28171.77185</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>38436.80464</v>
+        <v>41778.91266</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>64094.21564</v>
+        <v>62731.86198</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>103109.3131</v>
+        <v>107094.24463</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>77918.0861</v>
+        <v>75411.30303</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>98310.60180000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>96139.64541</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>122126.583</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3038.12857</v>
+        <v>10141.60732</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>6987.692230000001</v>
+        <v>7019.98335</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>9061.742690000001</v>
+        <v>8907.567640000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>12513.32027</v>
+        <v>11432.50761</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>15621.9682</v>
+        <v>15065.80257</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>20712.21254</v>
+        <v>21151.54519</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>26231.99388</v>
+        <v>29182.33919</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>51757.83703</v>
+        <v>50872.75071</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>84454.70022</v>
+        <v>89471.77871000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>48614.30134</v>
+        <v>46647.92524</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>69451.70014</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>67279.42327000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>95172.232</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1416.46245</v>
+        <v>1324.65273</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>4924.51177</v>
+        <v>5048.29071</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>7579.11196</v>
+        <v>5518.74429</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>8095.95325</v>
+        <v>4673.04246</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>7319.02943</v>
+        <v>4190.73674</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>5962.54239</v>
+        <v>4766.3912</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>8175.17436</v>
+        <v>8600.89471</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>7393.58937</v>
+        <v>7104.18217</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>13773.81333</v>
+        <v>12949.58957</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>22585.4601</v>
+        <v>22268.14211</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>23355.28348</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>19934.576</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1334.26293</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>783.43479</v>
+        <v>778.35748</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1383.56769</v>
+        <v>1379.09515</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1028.81816</v>
+        <v>1024.16965</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>826.3428500000001</v>
+        <v>789.34046</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2277.29442</v>
+        <v>2253.83546</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>4029.6364</v>
+        <v>3995.67876</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>4942.78924</v>
+        <v>4754.929099999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>4880.79955</v>
+        <v>4672.87635</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>6718.32466</v>
+        <v>6495.23568</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>5503.61818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5504.93866</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>7019.775</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2689813.08429</v>
+        <v>2649796.01173</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3285264.95312</v>
+        <v>3233614.63973</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4104365.43309</v>
+        <v>4020303.34943</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4922851.123240001</v>
+        <v>4886799.89934</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5615841.55482</v>
+        <v>5623971.56511</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7196744.83946</v>
+        <v>7223518.35235</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8349625.165630001</v>
+        <v>8377785.450209999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>9917938.009119999</v>
+        <v>9823553.425170001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>12350718.03253</v>
+        <v>12170973.10708</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>12726536.17423</v>
+        <v>12586182.62267</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>14954729.91018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14994059.25974</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>12967363.604</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2167108.34665</v>
+        <v>2135543.12326</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2699090.927269999</v>
+        <v>2656930.55894</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3328195.31435</v>
+        <v>3246010.072</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4005508.74515</v>
+        <v>3955183.53302</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4644545.81758</v>
+        <v>4614207.235090001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5942052.41011</v>
+        <v>5924118.522030001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6947284.60798</v>
+        <v>6931503.19306</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8343506.19475</v>
+        <v>8261842.821479999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>10441719.20646</v>
+        <v>10306021.91031</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>10861537.98438</v>
+        <v>10766557.44977</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>12707549.94177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12769266.93828</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>11225148.958</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>653024.6561500001</v>
+        <v>645763.67718</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>836013.11879</v>
+        <v>828399.1075599999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1101447.40569</v>
+        <v>1078517.51536</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1291593.19141</v>
+        <v>1256284.34958</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1592962.36711</v>
+        <v>1578885.45109</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2166603.018660001</v>
+        <v>2149173.8442</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2529682.08436</v>
+        <v>2501259.19515</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2816185.098939999</v>
+        <v>2796836.34983</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3540339.74496</v>
+        <v>3469176.38623</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4054594.267299999</v>
+        <v>4023689.42026</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4483789.81893</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4472930.83693</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4079973.076</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>277184.67513</v>
+        <v>270016.29732</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>358070.67746</v>
+        <v>347183.4975</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>451159.6834500001</v>
+        <v>430745.8835</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>560963.0009</v>
+        <v>551136.1191</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>586126.9026799999</v>
+        <v>595990.0149300001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>793302.05435</v>
+        <v>779923.36574</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1012113.99127</v>
+        <v>1019960.22177</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1301011.48202</v>
+        <v>1272101.51893</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2042094.35382</v>
+        <v>2022811.70356</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1460500.29199</v>
+        <v>1408434.27147</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2005734.35274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1993708.05107</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2083584.522</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1232756.76769</v>
+        <v>1217781.64399</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1500350.87744</v>
+        <v>1476704.51883</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1772190.30368</v>
+        <v>1733353.08701</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2147908.43589</v>
+        <v>2142750.48276</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2436853.43961</v>
+        <v>2410830.91282</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2955833.60445</v>
+        <v>2968690.69</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3361657.09902</v>
+        <v>3376372.14925</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4165046.48541</v>
+        <v>4131686.03316</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>4815998.96822</v>
+        <v>4769071.652190001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5325119.54073</v>
+        <v>5313500.949510001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>6176267.43228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>6268766.968110001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4986794.363</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>4142.24768</v>
+        <v>1981.50477</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>4656.253580000001</v>
+        <v>4643.43505</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>3397.92153</v>
+        <v>3393.58613</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>5044.116950000001</v>
+        <v>5012.58158</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>28603.10818</v>
+        <v>28500.85625</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>26313.73265</v>
+        <v>26330.62209</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>43831.43333</v>
+        <v>33911.62689</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>61263.12838</v>
+        <v>61218.91956</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>43286.13945999999</v>
+        <v>44962.16833</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>21323.88436</v>
+        <v>20932.80853</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>41758.33782</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>33861.08217</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>74796.997</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>522704.73764</v>
+        <v>514252.88847</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>586174.0258500001</v>
+        <v>576684.0807899999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>776170.1187400001</v>
+        <v>774293.27743</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>917342.3780899999</v>
+        <v>931616.36632</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>971295.73724</v>
+        <v>1009764.33002</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1254692.42935</v>
+        <v>1299399.83032</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1402340.55765</v>
+        <v>1446282.25715</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1574431.81437</v>
+        <v>1561710.60369</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1908998.82607</v>
+        <v>1864951.19677</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1864998.18985</v>
+        <v>1819625.1729</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2247179.96841</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2224792.32146</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1742214.646</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>443238.39359</v>
+        <v>425389.38747</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>516665.99934</v>
+        <v>512121.63569</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>662697.7300999999</v>
+        <v>650580.8583600001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>815202.6268399999</v>
+        <v>823017.4530799999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>897624.6096099999</v>
+        <v>945437.83381</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1265588.07722</v>
+        <v>1342925.6548</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1365740.05296</v>
+        <v>1504451.99579</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1614059.63311</v>
+        <v>1617774.12481</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1917978.73025</v>
+        <v>1897647.50891</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1871597.49069</v>
+        <v>1835758.71877</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2130461.26427</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2122661.30383</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1793785.824</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>520.0202</v>
+        <v>8.325059999999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>92.45911</v>
+        <v>56.52254</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>377.97781</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3770.80713</v>
+        <v>3770.5836</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>697.66716</v>
+        <v>1626.00688</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1712.00742</v>
+        <v>1709.85132</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>322.44839</v>
+        <v>99.66799</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>2520.11986</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1883.8217</v>
+        <v>1885.07343</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>10.97039</v>
@@ -1606,206 +1592,236 @@
       <c r="M21" s="48" t="n">
         <v>3.7075</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1350.048</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>122646.80934</v>
+        <v>117906.59537</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>132987.34751</v>
+        <v>134245.40421</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>196318.27568</v>
+        <v>200047.08592</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>242301.07843</v>
+        <v>255819.50203</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>266057.79823</v>
+        <v>287189.9608999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>424433.79701</v>
+        <v>454555.73363</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>493022.14337</v>
+        <v>543535.69036</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>558355.8336</v>
+        <v>575746.7211400002</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>621599.25686</v>
+        <v>626937.67698</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>616381.4176299999</v>
+        <v>616854.94407</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>709735.6254499999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>718698.0129200001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>641497.118</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>320071.56405</v>
+        <v>307474.46704</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>383586.1927200001</v>
+        <v>377819.70894</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>466001.47661</v>
+        <v>450155.79463</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>569130.74128</v>
+        <v>563427.36745</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>630869.14422</v>
+        <v>656621.8660299999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>839442.27279</v>
+        <v>886660.06985</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>872395.4612</v>
+        <v>960816.63744</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1053183.67965</v>
+        <v>1039507.28381</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1294495.65169</v>
+        <v>1268824.7585</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1255205.10267</v>
+        <v>1218892.80431</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1420721.93132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1403959.58341</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1150938.658</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>79466.34405000001</v>
+        <v>88863.501</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>69508.02651</v>
+        <v>64562.4451</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>113472.38864</v>
+        <v>123712.41907</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>102139.75125</v>
+        <v>108598.91324</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>73671.12762999999</v>
+        <v>64326.49620999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-10895.64787</v>
+        <v>-43525.82448</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>36600.50469</v>
+        <v>-58169.73864</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-39627.81874</v>
+        <v>-56063.52111999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-8979.90418</v>
+        <v>-32696.31214000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-6599.300840000004</v>
+        <v>-16133.54587</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>116718.70414</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>102131.01763</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-51571.178</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>57752.58717</v>
+        <v>43455.36488</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>68605.53539999999</v>
+        <v>74060.55121999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>85677.79343000001</v>
+        <v>70294.74137999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>83601.79227999999</v>
+        <v>72375.14792999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>83476.51097</v>
+        <v>88294.75364000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>139151.8418</v>
+        <v>344454.41583</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>182397.03896</v>
+        <v>367634.47813</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>202279.27666</v>
+        <v>221109.19172</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>268109.99464</v>
+        <v>762922.1459999999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>464238.6943</v>
+        <v>300015.76464</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>438908.6199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>265284.50625</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>366860.939</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>3196.7724</v>
+        <v>2385.29206</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>13402.24651</v>
+        <v>2762.47201</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>11419.76843</v>
+        <v>10261.10285</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>4958.52307</v>
+        <v>4796.07721</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>3673.57945</v>
+        <v>13982.1838</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>9029.93161</v>
+        <v>844.8075</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>6729.87599</v>
+        <v>1203.628</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>8386.81299</v>
+        <v>1339.8272</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>11360.59473</v>
+        <v>84310.19412</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>49130.06748000001</v>
+        <v>1008.25515</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>115154.15131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>551.64208</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>738.563</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>389.79903</v>
@@ -1823,10 +1839,10 @@
         <v>465.78963</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>940.5387500000001</v>
+        <v>27033.2428</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>429.49358</v>
+        <v>53103.82868999999</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>828.6615</v>
@@ -1838,208 +1854,238 @@
         <v>3928.27007</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>11063.65055</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>5907.72403</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>4173.948</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>11225.74285</v>
+        <v>8229.9985</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>7146.164329999999</v>
+        <v>11704.65004</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>10656.52373</v>
+        <v>8406.72243</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>15450.85707</v>
+        <v>16032.11547</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>18749.62293</v>
+        <v>16748.25629</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>29783.45806</v>
+        <v>28038.34956</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>32228.52397</v>
+        <v>44507.69085</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>36373.63185</v>
+        <v>31917.80119</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>56733.82239</v>
+        <v>406812.3066</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>71238.23473000001</v>
+        <v>55730.19158</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>80571.37725000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>64263.54131</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>60069.783</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>904.34025</v>
+        <v>868.59378</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1240.30256</v>
+        <v>1206.04322</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>2763.25522</v>
+        <v>2717.78857</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1279.03794</v>
+        <v>1537.47883</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1256.31691</v>
+        <v>888.33303</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1784.53382</v>
+        <v>1723.83176</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2080.05903</v>
+        <v>1515.7609</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>2395.77421</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1854.15713</v>
+        <v>1850.37981</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>4860.540109999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>5495.21877</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>5497.993060000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>2120.059</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>752.03675</v>
+        <v>683.3220600000001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>502.6781999999999</v>
+        <v>457.73429</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>748.86652</v>
+        <v>2496.13479</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>195.75385</v>
+        <v>155.77681</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2762.01359</v>
+        <v>899.1421799999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>461.7118400000001</v>
+        <v>187.39285</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>453.00854</v>
+        <v>172.86842</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2188.37419</v>
+        <v>1874.83462</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>8709.99257</v>
+        <v>5766.39862</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1926.23319</v>
+        <v>1742.41632</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>4295.222009999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>4163.06023</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>3369.828</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>493.03957</v>
+        <v>483.10265</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>3238.5108</v>
+        <v>3219.86106</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1304.24716</v>
+        <v>1280.10926</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>980.03445</v>
+        <v>723.37389</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>973.44125</v>
+        <v>930.3408900000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>731.8805</v>
+        <v>739.81167</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>804.79147</v>
+        <v>755.2006499999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>984.4971299999999</v>
+        <v>1741.70679</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>7196.582240000001</v>
+        <v>1468.42589</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>8894.730529999999</v>
+        <v>1141.85387</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>5143.07116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>4265.196529999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>4643.784</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>25166.01282</v>
+        <v>16385.86475</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>13133.39061</v>
+        <v>29212.03193</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>15875.53643</v>
+        <v>15917.68427</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>20858.82754</v>
+        <v>16795.08424</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>18661.19123</v>
+        <v>20203.16929</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>36562.30066</v>
+        <v>229482.42934</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>45589.21239</v>
+        <v>188252.87753</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>53062.94084</v>
+        <v>90520.10575</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>82555.12348000001</v>
+        <v>174117.4854</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>239231.33715</v>
+        <v>148226.109</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>87218.02645</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>49365.28536</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>167747.822</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2057,13 +2103,13 @@
         <v>75.91618</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>297.27322</v>
+        <v>65.26271</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>187.79895</v>
+        <v>141.40332</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>155.84332</v>
+        <v>20.84332</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>368.66011</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>544.15</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>59.7636</v>
@@ -2113,179 +2164,204 @@
       <c r="M34" s="48" t="n">
         <v>114.70108</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>15565.0799</v>
+        <v>13969.62845</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>29289.01466</v>
+        <v>24844.53094</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>40919.28068</v>
+        <v>27224.88395</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>38943.24227</v>
+        <v>31399.72539</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>36858.43824</v>
+        <v>34101.42079</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>59455.84612</v>
+        <v>56234.92042</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>93890.22950999999</v>
+        <v>77977.17423999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>97902.74063000001</v>
+        <v>90469.63714000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>97523.5619</v>
+        <v>86420.79536</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>85029.20298</v>
+        <v>83378.05048000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>129309.05132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>130611.21257</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>123996.642</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>43845.62486</v>
+        <v>33112.56175</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>22623.48016</v>
+        <v>37208.28513</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>65093.77402999999</v>
+        <v>58067.11809999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>30482.51043</v>
+        <v>33093.22523</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>62730.80471</v>
+        <v>175679.62267</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>84237.57561000001</v>
+        <v>351762.86847</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>131068.34869</v>
+        <v>564993.79906</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>104017.30099</v>
+        <v>154983.90923</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>150144.57409</v>
+        <v>581273.80044</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>346717.46845</v>
+        <v>245599.85433</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>189794.9702</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>157382.22641</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>284847.547</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>5858.66023</v>
+        <v>5901.47887</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>4771.950529999999</v>
+        <v>4765.66576</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>7408.911260000001</v>
+        <v>7374.741260000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>6231.35576</v>
+        <v>6720.86553</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>7789.935930000001</v>
+        <v>7614.76247</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>9874.102510000001</v>
+        <v>10252.16515</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>10670.1434</v>
+        <v>11188.78645</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>11760.7998</v>
+        <v>11775.50344</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>16543.97558</v>
+        <v>16452.65607</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>19844.87627</v>
+        <v>19842.67546</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>18335.79034</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>18327.67738</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>22669.723</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>4461.066319999999</v>
+        <v>4256.414839999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1181.1016</v>
+        <v>2427.07074</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>3299.40667</v>
+        <v>2914.86944</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2065.85743</v>
+        <v>2528.89722</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4317.96629</v>
+        <v>1953.26446</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>3210.84856</v>
+        <v>2994.19882</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>10110.03079</v>
+        <v>7940.67506</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>9234.92152</v>
+        <v>8714.715129999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>6131.49006</v>
+        <v>5230.6628</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>10686.34779</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>9013.79564</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>9125.31481</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>20817.099</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>983.64644</v>
+        <v>383.32315</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>22.93395</v>
+        <v>26.4699</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>14805.84718</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>2382.5273</v>
+        <v>5491.45615</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>3348.86174</v>
@@ -2294,64 +2370,74 @@
         <v>184.60949</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>11781.7323</v>
+        <v>13363.85693</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>63.80449000000001</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>261.03702</v>
+        <v>258.87295</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>20773.7816</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>357.0474599999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>249.30874</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1630.724</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>23836.68651</v>
+        <v>14548.55811</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>13174.32693</v>
+        <v>25141.57243</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>30844.04367</v>
+        <v>24501.60984</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>10681.47624</v>
+        <v>9409.92784</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>36669.74310999999</v>
+        <v>152371.81414</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>41656.20009000001</v>
+        <v>309522.38631</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>56488.26059999999</v>
+        <v>495809.17277</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>41896.42447999999</v>
+        <v>95818.30522999998</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>90078.32186</v>
+        <v>184781.99108</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>251076.96815</v>
+        <v>151350.43072</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>100110.49582</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>66653.90809</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>168274.472</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.5101600000000001</v>
@@ -2369,13 +2455,13 @@
         <v>115.0705</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>74.51504000000001</v>
+        <v>30.68439</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>305.11346</v>
+        <v>45.57265</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1748.64356</v>
+        <v>41.79861</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>9.159090000000001</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>25.78441</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>45.146</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2411,7 +2502,7 @@
         <v>0.09448999999999999</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>140.31119</v>
+        <v>0.05</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>2e-05</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>8705.055200000001</v>
+        <v>8022.276619999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3465.604409999999</v>
+        <v>4839.943560000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>8555.03098</v>
+        <v>8289.51611</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>8851.697249999999</v>
+        <v>8672.482040000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>10489.17674</v>
+        <v>10275.79896</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>29237.20542999999</v>
+        <v>28778.72982</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>41572.75695</v>
+        <v>36645.6852</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>39312.70712</v>
+        <v>38569.78231</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>37120.59048</v>
+        <v>374540.4584499999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>44284.47985</v>
+        <v>42895.60397</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>61952.05653</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>63000.23297999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>71410.383</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>39158.21573</v>
+        <v>35070.61117</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>42234.89447</v>
+        <v>42462.24176999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>52047.71543</v>
+        <v>51958.35612999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>72868.76294</v>
+        <v>68572.52336000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>77632.0817</v>
+        <v>110260.31358</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>99847.58025000001</v>
+        <v>168610.44878</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>147435.5394</v>
+        <v>218516.02655</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>170926.18181</v>
+        <v>156057.15362</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>222243.9968</v>
+        <v>196176.82987</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>298048.81536</v>
+        <v>268624.55622</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>308789.3002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>290223.71722</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>244930.503</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>36932.10346</v>
+        <v>32332.6389</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>38177.44435</v>
+        <v>38663.91254</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>48333.85454</v>
+        <v>45702.55421</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>67388.92540000001</v>
+        <v>60105.10394</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>71733.52615000001</v>
+        <v>59663.93717</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>93661.44512999999</v>
+        <v>161974.64004</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>138467.46608</v>
+        <v>209732.01803</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>162936.42177</v>
+        <v>146805.52269</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>213484.06907</v>
+        <v>189069.2924</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>283483.64012</v>
+        <v>257544.00854</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>287669.02318</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>277148.10462</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>238207.941</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2226.11227</v>
+        <v>2737.97227</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>4057.45012</v>
+        <v>3798.32923</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3713.86089</v>
+        <v>6255.80192</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>5479.83754</v>
+        <v>8467.41942</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>5898.55555</v>
+        <v>50596.37641</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>6186.135120000001</v>
+        <v>6635.808739999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>8968.07332</v>
+        <v>8784.008519999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>7989.76004</v>
+        <v>9251.630929999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>8759.927729999999</v>
+        <v>7107.537470000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>14565.17524</v>
+        <v>11080.54768</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>21120.27702</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>13075.6126</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>6722.562</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>54215.09063000001</v>
+        <v>64135.69296000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>73255.18728</v>
+        <v>58952.46942</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>82008.69261</v>
+        <v>83981.68622</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>82390.27016</v>
+        <v>79308.31258</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>16784.75219</v>
+        <v>-133318.6864</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-55828.96192999999</v>
+        <v>-219444.7259</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-59506.34444000001</v>
+        <v>-474045.08612</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-112292.02488</v>
+        <v>-145995.39225</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-113258.48043</v>
+        <v>-47224.79645000002</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-187126.89035</v>
+        <v>-230342.19178</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>57043.05364</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-80190.41975000002</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-214488.289</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>16069.16697</v>
+        <v>14670.09794</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>24687.14463</v>
+        <v>27369.41759</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>30959.80438</v>
+        <v>26604.3725</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>47081.21186</v>
+        <v>32862.99151</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>41735.96826000001</v>
+        <v>35332.46803</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>62182.10950999999</v>
+        <v>97685.42448999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>77648.57842000001</v>
+        <v>76443.89634000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>88314.51721000001</v>
+        <v>96199.41103</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>101550.67135</v>
+        <v>98365.22383000002</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>137302.2016</v>
+        <v>103951.92278</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>122309.3053</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>116915.42979</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>127300.656</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>206.76685</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>156.6443</v>
+        <v>426.36922</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1214.51448</v>
+        <v>644.02136</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1367.95705</v>
+        <v>358.61105</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>340.64108</v>
+        <v>372.02498</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>719.2095</v>
+        <v>1356.09466</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1221.44601</v>
+        <v>936.5828499999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1511.32287</v>
+        <v>1575.37504</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1125.8694</v>
+        <v>1107.31189</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1899.96064</v>
+        <v>1094.97779</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2086.41091</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2376.34758</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2501.11</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>15862.40012</v>
+        <v>14463.33109</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>24530.50033</v>
+        <v>26943.04837</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>29745.2899</v>
+        <v>25960.35114</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>45713.25481000001</v>
+        <v>32504.38046</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>41395.32718000001</v>
+        <v>34960.44304999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>61462.90000999999</v>
+        <v>96329.32983</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>76427.13240999999</v>
+        <v>75507.31349</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>86803.19434</v>
+        <v>94624.03599</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>100424.80195</v>
+        <v>97257.91193999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>135402.24096</v>
+        <v>102856.94499</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>120222.89439</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>114539.08221</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>124799.546</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>26074.72317</v>
+        <v>21772.62324</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>27298.12442</v>
+        <v>25853.36931</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>187925.73008</v>
+        <v>156746.59946</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>53482.75562</v>
+        <v>47414.20154000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>37921.94088999999</v>
+        <v>35958.74322</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>93735.53357000001</v>
+        <v>112540.91711</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>66454.36630000001</v>
+        <v>108933.35894</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>170549.52447</v>
+        <v>172501.45911</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>87774.80521999999</v>
+        <v>86813.73540999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>274201.34322</v>
+        <v>224191.74293</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>122920.21138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>97671.09922</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>115456.517</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>975.20511</v>
+        <v>1344.91267</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1668.01317</v>
+        <v>1688.60375</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1667.57412</v>
+        <v>1653.33106</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1695.85628</v>
+        <v>1290.31018</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1261.97325</v>
+        <v>1255.0693</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>6426.09749</v>
+        <v>4917.78983</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>442.94365</v>
+        <v>1461.47542</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>10537.01856</v>
+        <v>10262.00773</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>4766.08213</v>
+        <v>8767.40936</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>11434.44644</v>
+        <v>10167.68828</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>13538.81262</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>12650.82093</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>12046.358</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1528.67375</v>
+        <v>1400.80561</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2427.22506</v>
+        <v>2413.5621</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1699.20117</v>
+        <v>1465.90104</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4428.743060000001</v>
+        <v>2316.9594</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3383.97002</v>
+        <v>3644.48581</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2347.78338</v>
+        <v>2414.54385</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>6643.987419999999</v>
+        <v>6467.5618</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>6219.75027</v>
+        <v>6134.9763</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3857.48715</v>
+        <v>3156.87588</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>8119.486999999999</v>
+        <v>6043.87299</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>9582.89415</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>9455.436169999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2552.036</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>23570.84431</v>
+        <v>19026.90496</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>23202.88619</v>
+        <v>21751.20346</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>184558.95479</v>
+        <v>153627.36736</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>47358.15628</v>
+        <v>43806.93196</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>33275.99761999999</v>
+        <v>31059.18811</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>84961.65270000001</v>
+        <v>105208.58343</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>59367.43523</v>
+        <v>101004.32172</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>153792.75564</v>
+        <v>156104.47508</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>79151.23594</v>
+        <v>74889.45017</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>254647.40978</v>
+        <v>207980.18166</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>99798.50461</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>75564.84212</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>100858.123</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>44209.53443000001</v>
+        <v>57033.16766</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>70644.20749000002</v>
+        <v>60468.5177</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-74957.23309000001</v>
+        <v>-46160.54074</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>75988.7264</v>
+        <v>64757.10255</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>20598.77956</v>
+        <v>-133944.96159</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-87382.38599000001</v>
+        <v>-234300.21852</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-48312.13231999999</v>
+        <v>-506534.54872</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-194527.03214</v>
+        <v>-222297.44033</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-99482.6143</v>
+        <v>-35673.30802999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-324026.03197</v>
+        <v>-350582.01193</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>56432.14756</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-60946.08918</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-202644.15</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>18470.49162</v>
+        <v>18212.15485</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>27256.7927</v>
+        <v>26823.57822</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>29012.82249999999</v>
+        <v>27730.06307</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>36218.62264</v>
+        <v>32069.76187</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>35287.05817</v>
+        <v>33657.84739</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>43307.83728</v>
+        <v>40089.50442</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>61612.67063</v>
+        <v>55931.16482000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>57243.46897000001</v>
+        <v>54679.20743</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>70306.73621999999</v>
+        <v>59355.01214</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>61267.83743</v>
+        <v>51942.08676999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>72679.18246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>71235.35377</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>57527.679</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>25739.04281000001</v>
+        <v>38821.01281</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>43387.41479</v>
+        <v>33644.93948</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-103970.05559</v>
+        <v>-73890.60381</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>39770.10376000001</v>
+        <v>32687.34068</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-14688.27861</v>
+        <v>-167602.80898</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-130690.22327</v>
+        <v>-274389.72294</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-109924.80295</v>
+        <v>-562465.7135399999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-251770.50111</v>
+        <v>-276976.64776</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-169789.35052</v>
+        <v>-95028.32017000002</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-385293.8694</v>
+        <v>-402524.0987</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-16247.03490000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-132181.44295</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-260171.829</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>598</v>
+        <v>551</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>712</v>
+        <v>646</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>829</v>
+        <v>747</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>871</v>
+        <v>820</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1057</v>
+        <v>991</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1117</v>
+        <v>1050</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1183</v>
+        <v>1075</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1285</v>
+        <v>1126</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1070</v>
+        <v>1030</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1039</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>